--- a/tests/data/public/fake-out.xlsx
+++ b/tests/data/public/fake-out.xlsx
@@ -1,71 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\me\Code\tally-extract\tests\data\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E96D0F-38E2-4267-9DB2-0C7C17C40857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1695" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="tally_36" sheetId="1" r:id="rId1"/>
     <sheet name="tally_361" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J/MeV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mev/gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutrons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>tally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>units</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>FMF</t>
-  </si>
-  <si>
-    <t>J/MeV</t>
-  </si>
-  <si>
-    <t>cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>mev/gram</t>
-  </si>
-  <si>
-    <t>neutrons</t>
-  </si>
-  <si>
-    <t>keff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,30 +100,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,287 +401,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7"/>
+    <col min="2" max="2" width="12"/>
+    <col min="3" max="3" width="10"/>
+    <col min="4" max="4" width="22"/>
+    <col min="5" max="5" width="15"/>
+    <col min="6" max="6" width="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>428946239037291650.0</v>
+      </c>
+      <c r="E2">
+        <v>1.6021773e-13</v>
+      </c>
+      <c r="F2">
+        <v>1.00333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="1">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>4.2894623903729158E+17</v>
-      </c>
-      <c r="I2">
-        <v>1.6021772999999999E-13</v>
-      </c>
-      <c r="J2">
-        <v>1.0033300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>16500</v>
       </c>
-      <c r="B4">
-        <v>4.4995300000000001E-7</v>
-      </c>
-      <c r="C4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
+        <v>4.49953e-7</v>
+      </c>
+      <c r="C5">
+        <v>0.007</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>16501</v>
       </c>
-      <c r="B5">
-        <v>4.2201499999999998E-7</v>
-      </c>
-      <c r="C5">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>4.22015e-7</v>
+      </c>
+      <c r="C6">
+        <v>0.0072</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>16502</v>
       </c>
-      <c r="B6">
-        <v>7.90535E-8</v>
-      </c>
-      <c r="C6">
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7">
+        <v>7.90535e-8</v>
+      </c>
+      <c r="C7">
+        <v>0.0092</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>16503</v>
       </c>
-      <c r="B7">
-        <v>2.0526E-7</v>
-      </c>
-      <c r="C7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8">
+        <v>2.0526e-7</v>
+      </c>
+      <c r="C8">
+        <v>0.008</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>16504</v>
       </c>
-      <c r="B8">
-        <v>1.44381E-7</v>
-      </c>
-      <c r="C8">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9">
+        <v>1.44381e-7</v>
+      </c>
+      <c r="C9">
+        <v>0.0073</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>16505</v>
       </c>
-      <c r="B9">
-        <v>3.72449E-7</v>
-      </c>
-      <c r="C9">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10">
+        <v>3.72449e-7</v>
+      </c>
+      <c r="C10">
+        <v>0.0048</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>16506</v>
       </c>
-      <c r="B10">
-        <v>7.7186300000000003E-8</v>
-      </c>
-      <c r="C10">
-        <v>9.2999999999999992E-3</v>
+      <c r="B11">
+        <v>7.71863e-8</v>
+      </c>
+      <c r="C11">
+        <v>0.0093</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D26"/>
+    <sheetView workbookViewId="0">
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7"/>
+    <col min="2" max="2" width="12"/>
+    <col min="3" max="3" width="10"/>
+    <col min="4" max="4" width="22"/>
+    <col min="5" max="5" width="15"/>
+    <col min="6" max="6" width="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>428946239037291650.0</v>
+      </c>
+      <c r="E2">
+        <v>1.6021773e-13</v>
+      </c>
+      <c r="F2">
+        <v>1.00333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>361</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>4.2894623903729158E+17</v>
-      </c>
-      <c r="I2">
-        <v>1.6021772999999999E-13</v>
-      </c>
-      <c r="J2">
-        <v>1.0033300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>16500</v>
       </c>
-      <c r="B4">
-        <v>4.4995300000000001E-7</v>
-      </c>
-      <c r="C4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
+        <v>4.49953e-7</v>
+      </c>
+      <c r="C5">
+        <v>0.007</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>16501</v>
       </c>
-      <c r="B5">
-        <v>4.2201499999999998E-7</v>
-      </c>
-      <c r="C5">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>4.22015e-7</v>
+      </c>
+      <c r="C6">
+        <v>0.0072</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>16502</v>
       </c>
-      <c r="B6">
-        <v>7.90535E-8</v>
-      </c>
-      <c r="C6">
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7">
+        <v>7.90535e-8</v>
+      </c>
+      <c r="C7">
+        <v>0.0092</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>16503</v>
       </c>
-      <c r="B7">
-        <v>2.0526E-7</v>
-      </c>
-      <c r="C7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8">
+        <v>2.0526e-7</v>
+      </c>
+      <c r="C8">
+        <v>0.008</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>16504</v>
       </c>
-      <c r="B8">
-        <v>1.44381E-7</v>
-      </c>
-      <c r="C8">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9">
+        <v>1.44381e-7</v>
+      </c>
+      <c r="C9">
+        <v>0.0073</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>16505</v>
       </c>
-      <c r="B9">
-        <v>3.72449E-7</v>
-      </c>
-      <c r="C9">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10">
+        <v>3.72449e-7</v>
+      </c>
+      <c r="C10">
+        <v>0.0048</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>16506</v>
       </c>
-      <c r="B10">
-        <v>7.7186300000000003E-8</v>
-      </c>
-      <c r="C10">
-        <v>9.2999999999999992E-3</v>
+      <c r="B11">
+        <v>7.71863e-8</v>
+      </c>
+      <c r="C11">
+        <v>0.0093</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>